--- a/Supplemental data/Henry 2025 - Supplementary table.xlsx
+++ b/Supplemental data/Henry 2025 - Supplementary table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\OneDrive - UCB-O365\3. Grants, papers and conferences\Experimental papers\5. Henry et al. 2024 (submitted)\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="113_{19320CA0-7B4E-4809-A403-C2AC352A5083}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{3FEEAFA7-1CB7-4F5C-B599-7565A1867BF9}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="113_{19320CA0-7B4E-4809-A403-C2AC352A5083}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{D36DFDD8-9ED8-4004-99D7-16A58841FE61}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -277,7 +277,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -351,10 +351,19 @@
     <xf numFmtId="2" fontId="1" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -363,19 +372,13 @@
     <xf numFmtId="2" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -661,7 +664,7 @@
   <dimension ref="A1:AU58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -684,169 +687,169 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="29" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="16"/>
       <c r="D1" s="17"/>
       <c r="E1" s="16"/>
       <c r="F1" s="18"/>
-      <c r="G1" s="35" t="s">
+      <c r="G1" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="33" t="s">
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="35" t="s">
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="33" t="s">
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="31" t="s">
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="31"/>
-      <c r="Z1" s="31"/>
-      <c r="AA1" s="31" t="s">
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="AB1" s="31"/>
-      <c r="AC1" s="31"/>
-      <c r="AD1" s="31"/>
-      <c r="AE1" s="31" t="s">
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="AF1" s="31"/>
-      <c r="AG1" s="31"/>
-      <c r="AH1" s="31"/>
-      <c r="AI1" s="29" t="s">
+      <c r="AF1" s="34"/>
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="34"/>
+      <c r="AI1" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="AJ1" s="29"/>
-      <c r="AK1" s="29"/>
-      <c r="AL1" s="29"/>
-      <c r="AM1" s="29" t="s">
+      <c r="AJ1" s="36"/>
+      <c r="AK1" s="36"/>
+      <c r="AL1" s="36"/>
+      <c r="AM1" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="AN1" s="29"/>
-      <c r="AO1" s="29"/>
-      <c r="AP1" s="29"/>
-      <c r="AQ1" s="29" t="s">
+      <c r="AN1" s="36"/>
+      <c r="AO1" s="36"/>
+      <c r="AP1" s="36"/>
+      <c r="AQ1" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="AR1" s="29"/>
-      <c r="AS1" s="29"/>
-      <c r="AT1" s="29"/>
+      <c r="AR1" s="36"/>
+      <c r="AS1" s="36"/>
+      <c r="AT1" s="36"/>
       <c r="AU1" s="10"/>
     </row>
     <row r="2" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
       <c r="C2" s="16"/>
       <c r="D2" s="17"/>
       <c r="E2" s="16"/>
       <c r="F2" s="18"/>
-      <c r="G2" s="36" t="s">
+      <c r="G2" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36" t="s">
+      <c r="H2" s="31"/>
+      <c r="I2" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="36"/>
-      <c r="K2" s="34" t="s">
+      <c r="J2" s="31"/>
+      <c r="K2" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34" t="s">
+      <c r="L2" s="33"/>
+      <c r="M2" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="34"/>
-      <c r="O2" s="36" t="s">
+      <c r="N2" s="33"/>
+      <c r="O2" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36" t="s">
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="R2" s="36"/>
-      <c r="S2" s="34" t="s">
+      <c r="R2" s="31"/>
+      <c r="S2" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34" t="s">
+      <c r="T2" s="33"/>
+      <c r="U2" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="V2" s="34"/>
-      <c r="W2" s="32" t="s">
+      <c r="V2" s="33"/>
+      <c r="W2" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="X2" s="32"/>
-      <c r="Y2" s="32" t="s">
+      <c r="X2" s="35"/>
+      <c r="Y2" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="Z2" s="32"/>
-      <c r="AA2" s="32" t="s">
+      <c r="Z2" s="35"/>
+      <c r="AA2" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="AB2" s="32"/>
-      <c r="AC2" s="32" t="s">
+      <c r="AB2" s="35"/>
+      <c r="AC2" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="AD2" s="32"/>
-      <c r="AE2" s="32" t="s">
+      <c r="AD2" s="35"/>
+      <c r="AE2" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="AF2" s="32"/>
-      <c r="AG2" s="32" t="s">
+      <c r="AF2" s="35"/>
+      <c r="AG2" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="AH2" s="32"/>
-      <c r="AI2" s="30" t="s">
+      <c r="AH2" s="35"/>
+      <c r="AI2" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="AJ2" s="30"/>
-      <c r="AK2" s="30" t="s">
+      <c r="AJ2" s="37"/>
+      <c r="AK2" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="AL2" s="30"/>
-      <c r="AM2" s="30" t="s">
+      <c r="AL2" s="37"/>
+      <c r="AM2" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="AN2" s="30"/>
-      <c r="AO2" s="30" t="s">
+      <c r="AN2" s="37"/>
+      <c r="AO2" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="AP2" s="30"/>
-      <c r="AQ2" s="30" t="s">
+      <c r="AP2" s="37"/>
+      <c r="AQ2" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="AR2" s="30"/>
-      <c r="AS2" s="30" t="s">
+      <c r="AR2" s="37"/>
+      <c r="AS2" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="AT2" s="30"/>
+      <c r="AT2" s="37"/>
     </row>
     <row r="3" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A3" s="37"/>
-      <c r="B3" s="37"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
       <c r="C3" s="19" t="s">
         <v>1</v>
       </c>
@@ -990,8 +993,8 @@
       <c r="C4" s="11">
         <v>47</v>
       </c>
-      <c r="D4" s="3">
-        <v>141</v>
+      <c r="D4" s="38">
+        <v>20.229555236728839</v>
       </c>
       <c r="E4" s="5">
         <v>100</v>
@@ -1131,8 +1134,8 @@
       <c r="C5" s="11">
         <v>70</v>
       </c>
-      <c r="D5" s="3">
-        <v>122</v>
+      <c r="D5" s="38">
+        <v>17.503586800573888</v>
       </c>
       <c r="E5" s="5">
         <v>71</v>
@@ -1271,8 +1274,8 @@
       <c r="C6" s="11">
         <v>74</v>
       </c>
-      <c r="D6" s="3">
-        <v>190</v>
+      <c r="D6" s="38">
+        <v>27.259684361549496</v>
       </c>
       <c r="E6" s="5">
         <v>100</v>
@@ -1411,8 +1414,8 @@
       <c r="C7" s="11">
         <v>72</v>
       </c>
-      <c r="D7" s="3">
-        <v>200.99999999999997</v>
+      <c r="D7" s="38">
+        <v>28.837876614060256</v>
       </c>
       <c r="E7" s="5">
         <v>83</v>
@@ -1551,8 +1554,8 @@
       <c r="C8" s="11">
         <v>71</v>
       </c>
-      <c r="D8" s="3">
-        <v>186</v>
+      <c r="D8" s="38">
+        <v>26.685796269727405</v>
       </c>
       <c r="E8" s="5">
         <v>91</v>
@@ -1691,8 +1694,8 @@
       <c r="C9" s="11">
         <v>84</v>
       </c>
-      <c r="D9" s="3">
-        <v>122</v>
+      <c r="D9" s="38">
+        <v>17.503586800573888</v>
       </c>
       <c r="E9" s="5">
         <v>91</v>
@@ -1831,8 +1834,8 @@
       <c r="C10" s="11">
         <v>83</v>
       </c>
-      <c r="D10" s="3">
-        <v>235.99999999999997</v>
+      <c r="D10" s="38">
+        <v>33.859397417503587</v>
       </c>
       <c r="E10" s="5">
         <v>100</v>
@@ -1971,8 +1974,8 @@
       <c r="C11" s="11">
         <v>78</v>
       </c>
-      <c r="D11" s="3">
-        <v>105</v>
+      <c r="D11" s="38">
+        <v>15.064562410329987</v>
       </c>
       <c r="E11" s="5">
         <v>73</v>
@@ -2111,8 +2114,8 @@
       <c r="C12" s="11">
         <v>72</v>
       </c>
-      <c r="D12" s="3">
-        <v>217</v>
+      <c r="D12" s="38">
+        <v>31.133428981348636</v>
       </c>
       <c r="E12" s="5">
         <v>84</v>
@@ -2251,8 +2254,8 @@
       <c r="C13" s="11">
         <v>75</v>
       </c>
-      <c r="D13" s="3">
-        <v>147</v>
+      <c r="D13" s="38">
+        <v>21.090387374461979</v>
       </c>
       <c r="E13" s="5">
         <v>90</v>
@@ -2373,8 +2376,8 @@
       <c r="C14" s="11">
         <v>70</v>
       </c>
-      <c r="D14" s="3">
-        <v>126</v>
+      <c r="D14" s="38">
+        <v>18.077474892395983</v>
       </c>
       <c r="E14" s="5">
         <v>91</v>
@@ -2513,8 +2516,8 @@
       <c r="C15" s="11">
         <v>75</v>
       </c>
-      <c r="D15" s="3">
-        <v>90</v>
+      <c r="D15" s="38">
+        <v>12.912482065997132</v>
       </c>
       <c r="E15" s="5">
         <v>100</v>
@@ -2653,8 +2656,8 @@
       <c r="C16" s="11">
         <v>82</v>
       </c>
-      <c r="D16" s="3">
-        <v>190</v>
+      <c r="D16" s="38">
+        <v>27.259684361549496</v>
       </c>
       <c r="E16" s="5">
         <v>-33</v>
@@ -2793,8 +2796,8 @@
       <c r="C17" s="11">
         <v>45</v>
       </c>
-      <c r="D17" s="3">
-        <v>195</v>
+      <c r="D17" s="38">
+        <v>27.977044476327116</v>
       </c>
       <c r="E17" s="5">
         <v>100</v>
@@ -2933,8 +2936,8 @@
       <c r="C18" s="11">
         <v>72</v>
       </c>
-      <c r="D18" s="3">
-        <v>71</v>
+      <c r="D18" s="38">
+        <v>10.18651362984218</v>
       </c>
       <c r="E18" s="5">
         <v>100</v>
@@ -3073,8 +3076,8 @@
       <c r="C19" s="11">
         <v>61</v>
       </c>
-      <c r="D19" s="3">
-        <v>104</v>
+      <c r="D19" s="38">
+        <v>14.921090387374463</v>
       </c>
       <c r="E19" s="5">
         <v>69</v>
@@ -3213,8 +3216,8 @@
       <c r="C20" s="11">
         <v>67</v>
       </c>
-      <c r="D20" s="3">
-        <v>126</v>
+      <c r="D20" s="38">
+        <v>18.077474892395983</v>
       </c>
       <c r="E20" s="5">
         <v>100</v>
@@ -3353,8 +3356,8 @@
       <c r="C21" s="11">
         <v>42</v>
       </c>
-      <c r="D21" s="3">
-        <v>124</v>
+      <c r="D21" s="38">
+        <v>17.790530846484934</v>
       </c>
       <c r="E21" s="5">
         <v>83</v>
@@ -3493,8 +3496,8 @@
       <c r="C22" s="11">
         <v>47</v>
       </c>
-      <c r="D22" s="3">
-        <v>127</v>
+      <c r="D22" s="38">
+        <v>18.220946915351508</v>
       </c>
       <c r="E22" s="5">
         <v>-58</v>
@@ -3633,8 +3636,8 @@
       <c r="C23" s="11">
         <v>48</v>
       </c>
-      <c r="D23" s="3">
-        <v>109.80000000000001</v>
+      <c r="D23" s="38">
+        <v>15.753228120516502</v>
       </c>
       <c r="E23" s="5">
         <v>100</v>
@@ -3773,8 +3776,8 @@
       <c r="C24" s="11">
         <v>79</v>
       </c>
-      <c r="D24" s="3">
-        <v>120</v>
+      <c r="D24" s="38">
+        <v>17.216642754662839</v>
       </c>
       <c r="E24" s="5">
         <v>100</v>
@@ -3913,8 +3916,8 @@
       <c r="C25" s="11">
         <v>64</v>
       </c>
-      <c r="D25" s="3">
-        <v>225</v>
+      <c r="D25" s="38">
+        <v>32.281205164992826</v>
       </c>
       <c r="E25" s="5">
         <v>71</v>
@@ -4053,8 +4056,8 @@
       <c r="C26" s="11">
         <v>54</v>
       </c>
-      <c r="D26" s="3">
-        <v>126</v>
+      <c r="D26" s="38">
+        <v>18.077474892395983</v>
       </c>
       <c r="E26" s="5">
         <v>67</v>
@@ -4193,8 +4196,8 @@
       <c r="C27" s="11">
         <v>68</v>
       </c>
-      <c r="D27" s="3">
-        <v>158</v>
+      <c r="D27" s="38">
+        <v>22.668579626972743</v>
       </c>
       <c r="E27" s="5">
         <v>73</v>
@@ -4333,8 +4336,8 @@
       <c r="C28" s="11">
         <v>65</v>
       </c>
-      <c r="D28" s="3">
-        <v>176.23900999999998</v>
+      <c r="D28" s="38">
+        <v>25.285367288378765</v>
       </c>
       <c r="E28" s="5">
         <v>69</v>
@@ -4473,8 +4476,8 @@
       <c r="C29" s="11">
         <v>70</v>
       </c>
-      <c r="D29" s="3">
-        <v>233.88672</v>
+      <c r="D29" s="38">
+        <v>33.556200860832142</v>
       </c>
       <c r="E29" s="5">
         <v>71</v>
@@ -4613,8 +4616,8 @@
       <c r="C30" s="11">
         <v>41</v>
       </c>
-      <c r="D30" s="3">
-        <v>218</v>
+      <c r="D30" s="38">
+        <v>31.276901004304165</v>
       </c>
       <c r="E30" s="5">
         <v>85</v>
@@ -4753,8 +4756,8 @@
       <c r="C31" s="11">
         <v>43</v>
       </c>
-      <c r="D31" s="3">
-        <v>222.00000000000003</v>
+      <c r="D31" s="38">
+        <v>31.85078909612626</v>
       </c>
       <c r="E31" s="5">
         <v>100</v>
@@ -4893,8 +4896,8 @@
       <c r="C32" s="11">
         <v>53</v>
       </c>
-      <c r="D32" s="3">
-        <v>183</v>
+      <c r="D32" s="38">
+        <v>26.255380200860834</v>
       </c>
       <c r="E32" s="5">
         <v>69</v>
@@ -5033,8 +5036,8 @@
       <c r="C33" s="11">
         <v>66</v>
       </c>
-      <c r="D33" s="3">
-        <v>118.99999999999999</v>
+      <c r="D33" s="38">
+        <v>17.073170731707318</v>
       </c>
       <c r="E33" s="5">
         <v>83</v>
@@ -5173,8 +5176,8 @@
       <c r="C34" s="11">
         <v>51</v>
       </c>
-      <c r="D34" s="3">
-        <v>64.208984000000001</v>
+      <c r="D34" s="38">
+        <v>9.2121928263988533</v>
       </c>
       <c r="E34" s="5">
         <v>83</v>
@@ -5313,8 +5316,8 @@
       <c r="C35" s="11">
         <v>42</v>
       </c>
-      <c r="D35" s="3">
-        <v>111.00000000000001</v>
+      <c r="D35" s="38">
+        <v>15.92539454806313</v>
       </c>
       <c r="E35" s="5">
         <v>47</v>
@@ -5453,8 +5456,8 @@
       <c r="C36" s="11">
         <v>63</v>
       </c>
-      <c r="D36" s="3">
-        <v>128</v>
+      <c r="D36" s="38">
+        <v>18.364418938307033</v>
       </c>
       <c r="E36" s="5">
         <v>71</v>
@@ -5593,8 +5596,8 @@
       <c r="C37" s="11">
         <v>50</v>
       </c>
-      <c r="D37" s="3">
-        <v>136</v>
+      <c r="D37" s="38">
+        <v>19.512195121951223</v>
       </c>
       <c r="E37" s="5">
         <v>57</v>
@@ -5734,8 +5737,8 @@
       <c r="C38" s="11">
         <v>52</v>
       </c>
-      <c r="D38" s="3">
-        <v>143</v>
+      <c r="D38" s="38">
+        <v>20.516499282639884</v>
       </c>
       <c r="E38" s="5">
         <v>83</v>
@@ -5875,8 +5878,8 @@
       <c r="C39" s="11">
         <v>51</v>
       </c>
-      <c r="D39" s="3">
-        <v>92</v>
+      <c r="D39" s="38">
+        <v>13.199426111908179</v>
       </c>
       <c r="E39" s="5">
         <v>83</v>
@@ -6016,8 +6019,8 @@
       <c r="C40" s="11">
         <v>53</v>
       </c>
-      <c r="D40" s="3">
-        <v>144</v>
+      <c r="D40" s="38">
+        <v>20.659971305595409</v>
       </c>
       <c r="E40" s="5">
         <v>85</v>
@@ -6157,8 +6160,8 @@
       <c r="C41" s="11">
         <v>49</v>
       </c>
-      <c r="D41" s="3">
-        <v>279</v>
+      <c r="D41" s="38">
+        <v>40.028694404591107</v>
       </c>
       <c r="E41" s="5">
         <v>100</v>
@@ -6298,8 +6301,8 @@
       <c r="C42" s="11">
         <v>41</v>
       </c>
-      <c r="D42" s="3">
-        <v>220</v>
+      <c r="D42" s="38">
+        <v>31.56384505021521</v>
       </c>
       <c r="E42" s="5">
         <v>100</v>
@@ -6438,8 +6441,8 @@
       <c r="C43" s="11">
         <v>46</v>
       </c>
-      <c r="D43" s="3">
-        <v>152</v>
+      <c r="D43" s="38">
+        <v>21.807747489239599</v>
       </c>
       <c r="E43" s="5">
         <v>54</v>
@@ -6578,8 +6581,8 @@
       <c r="C44" s="11">
         <v>56</v>
       </c>
-      <c r="D44" s="3">
-        <v>72</v>
+      <c r="D44" s="38">
+        <v>10.329985652797705</v>
       </c>
       <c r="E44" s="5">
         <v>85</v>
@@ -6718,8 +6721,8 @@
       <c r="C45" s="11">
         <v>48</v>
       </c>
-      <c r="D45" s="3">
-        <v>195</v>
+      <c r="D45" s="38">
+        <v>27.977044476327116</v>
       </c>
       <c r="E45" s="5">
         <v>100</v>
@@ -6947,29 +6950,6 @@
     <sortCondition ref="A6:A54"/>
   </sortState>
   <mergeCells count="32">
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="S1:V1"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W1:Z1"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="AA1:AD1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AE1:AH1"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AG2:AH2"/>
     <mergeCell ref="AQ1:AT1"/>
     <mergeCell ref="AQ2:AR2"/>
     <mergeCell ref="AS2:AT2"/>
@@ -6979,6 +6959,29 @@
     <mergeCell ref="AM1:AP1"/>
     <mergeCell ref="AM2:AN2"/>
     <mergeCell ref="AO2:AP2"/>
+    <mergeCell ref="AA1:AD1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AE1:AH1"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="S1:V1"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W1:Z1"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6986,6 +6989,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="27561e85-5007-4c87-b716-1874ab54b0d0" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F7A79AD1AC0CFD40B78A926B4D0F4579" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="65186720d00a38af868cfc207b5ff377">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="27561e85-5007-4c87-b716-1874ab54b0d0" xmlns:ns4="14fec7dc-04b3-4ebd-9729-805e1e257fdb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ca7515a25da19bc02527ac30e589487f" ns3:_="" ns4:_="">
     <xsd:import namespace="27561e85-5007-4c87-b716-1874ab54b0d0"/>
@@ -7224,14 +7235,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="27561e85-5007-4c87-b716-1874ab54b0d0" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -7242,6 +7245,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89D9BF06-A00C-4B8F-B2BD-179B3E191A93}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="27561e85-5007-4c87-b716-1874ab54b0d0"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="14fec7dc-04b3-4ebd-9729-805e1e257fdb"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1F63B0A-29D2-4797-965D-6CF24B4C68CA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7260,23 +7280,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89D9BF06-A00C-4B8F-B2BD-179B3E191A93}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="14fec7dc-04b3-4ebd-9729-805e1e257fdb"/>
-    <ds:schemaRef ds:uri="27561e85-5007-4c87-b716-1874ab54b0d0"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1783E7C0-CAD7-4FC6-B2D7-85D3CB78BD13}">
   <ds:schemaRefs>
